--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
   <si>
     <t>Brute Force</t>
   </si>
@@ -70,10 +71,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,8 +113,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -108,7 +127,9 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1314,11 +1335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421141920"/>
-        <c:axId val="320013440"/>
+        <c:axId val="-1818772112"/>
+        <c:axId val="-1818767504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421141920"/>
+        <c:axId val="-1818772112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,12 +1456,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320013440"/>
+        <c:crossAx val="-1818767504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320013440"/>
+        <c:axId val="-1818767504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421141920"/>
+        <c:crossAx val="-1818772112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2831,11 +2852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216910432"/>
-        <c:axId val="298047616"/>
+        <c:axId val="-1888938032"/>
+        <c:axId val="-1889424304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216910432"/>
+        <c:axId val="-1888938032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2917,6 +2938,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2953,12 +2975,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298047616"/>
+        <c:crossAx val="-1889424304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298047616"/>
+        <c:axId val="-1889424304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +3097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216910432"/>
+        <c:crossAx val="-1888938032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4339,11 +4361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324713280"/>
-        <c:axId val="376479440"/>
+        <c:axId val="-1818722624"/>
+        <c:axId val="-1818718352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324713280"/>
+        <c:axId val="-1818722624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,12 +4482,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376479440"/>
+        <c:crossAx val="-1818718352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376479440"/>
+        <c:axId val="-1818718352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4582,7 +4604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324713280"/>
+        <c:crossAx val="-1818722624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5605,11 +5627,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="372936320"/>
-        <c:axId val="372512160"/>
+        <c:axId val="-1818659776"/>
+        <c:axId val="-1818656512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="372936320"/>
+        <c:axId val="-1818659776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5652,7 +5674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372512160"/>
+        <c:crossAx val="-1818656512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5660,7 +5682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372512160"/>
+        <c:axId val="-1818656512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5711,7 +5733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372936320"/>
+        <c:crossAx val="-1818659776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6741,11 +6763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="323779248"/>
-        <c:axId val="323781536"/>
+        <c:axId val="-1818613248"/>
+        <c:axId val="-1818609984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="323779248"/>
+        <c:axId val="-1818613248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6788,7 +6810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323781536"/>
+        <c:crossAx val="-1818609984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6796,7 +6818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="323781536"/>
+        <c:axId val="-1818609984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6846,7 +6868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323779248"/>
+        <c:crossAx val="-1818613248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9775,16 +9797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10140,8 +10162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11747,10 +11769,1713 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <v>0.2</v>
+      </c>
+      <c r="D1">
+        <v>0.3</v>
+      </c>
+      <c r="E1">
+        <v>0.4</v>
+      </c>
+      <c r="F1">
+        <v>0.5</v>
+      </c>
+      <c r="G1">
+        <v>0.6</v>
+      </c>
+      <c r="H1">
+        <v>0.7</v>
+      </c>
+      <c r="I1">
+        <v>0.8</v>
+      </c>
+      <c r="J1">
+        <v>0.9</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.08</v>
+      </c>
+      <c r="C2">
+        <v>2.16</v>
+      </c>
+      <c r="D2">
+        <v>1.64</v>
+      </c>
+      <c r="E2">
+        <v>1.24</v>
+      </c>
+      <c r="F2">
+        <v>0.97</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
+        <v>0.67</v>
+      </c>
+      <c r="I2">
+        <v>0.65</v>
+      </c>
+      <c r="J2">
+        <v>0.54</v>
+      </c>
+      <c r="K2">
+        <v>0.43</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>0.12</v>
+      </c>
+      <c r="N2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>213.02</v>
+      </c>
+      <c r="C3">
+        <v>154.66</v>
+      </c>
+      <c r="D3">
+        <v>128.72999999999999</v>
+      </c>
+      <c r="E3">
+        <v>86.06</v>
+      </c>
+      <c r="F3">
+        <v>68.63</v>
+      </c>
+      <c r="G3">
+        <v>52.34</v>
+      </c>
+      <c r="H3">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="I3">
+        <v>29.98</v>
+      </c>
+      <c r="J3">
+        <v>36.4</v>
+      </c>
+      <c r="K3">
+        <v>33.47</v>
+      </c>
+      <c r="L3">
+        <v>25.4</v>
+      </c>
+      <c r="M3">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="N3">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>24.34</v>
+      </c>
+      <c r="C4">
+        <v>21.32</v>
+      </c>
+      <c r="D4">
+        <v>21.32</v>
+      </c>
+      <c r="E4">
+        <v>21.61</v>
+      </c>
+      <c r="F4">
+        <v>21.73</v>
+      </c>
+      <c r="G4">
+        <v>22.42</v>
+      </c>
+      <c r="H4">
+        <v>21.26</v>
+      </c>
+      <c r="I4">
+        <v>21.79</v>
+      </c>
+      <c r="J4">
+        <v>21.36</v>
+      </c>
+      <c r="K4">
+        <v>21.15</v>
+      </c>
+      <c r="L4">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="M4">
+        <v>20.43</v>
+      </c>
+      <c r="N4">
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>109.83</v>
+      </c>
+      <c r="C5">
+        <v>49.69</v>
+      </c>
+      <c r="D5">
+        <v>41.45</v>
+      </c>
+      <c r="E5">
+        <v>40.25</v>
+      </c>
+      <c r="F5">
+        <v>39.08</v>
+      </c>
+      <c r="G5">
+        <v>25.46</v>
+      </c>
+      <c r="H5">
+        <v>26.37</v>
+      </c>
+      <c r="I5">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="J5">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="K5">
+        <v>30.17</v>
+      </c>
+      <c r="L5">
+        <v>31.75</v>
+      </c>
+      <c r="M5">
+        <v>21.51</v>
+      </c>
+      <c r="N5">
+        <v>38.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>26.29</v>
+      </c>
+      <c r="C6">
+        <v>7.87</v>
+      </c>
+      <c r="D6">
+        <v>5.34</v>
+      </c>
+      <c r="E6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F6">
+        <v>3.82</v>
+      </c>
+      <c r="G6">
+        <v>3.77</v>
+      </c>
+      <c r="H6">
+        <v>3.62</v>
+      </c>
+      <c r="I6">
+        <v>3.14</v>
+      </c>
+      <c r="J6">
+        <v>3.71</v>
+      </c>
+      <c r="K6">
+        <v>2.84</v>
+      </c>
+      <c r="L6">
+        <v>2.54</v>
+      </c>
+      <c r="M6">
+        <v>2.41</v>
+      </c>
+      <c r="N6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2912.19</v>
+      </c>
+      <c r="C7">
+        <v>2369.7399999999998</v>
+      </c>
+      <c r="D7">
+        <v>2226.84</v>
+      </c>
+      <c r="E7">
+        <v>2136.46</v>
+      </c>
+      <c r="F7">
+        <v>1887.84</v>
+      </c>
+      <c r="G7">
+        <v>1887.47</v>
+      </c>
+      <c r="H7">
+        <v>1877.4</v>
+      </c>
+      <c r="I7">
+        <v>1769.97</v>
+      </c>
+      <c r="J7">
+        <v>1795.43</v>
+      </c>
+      <c r="K7">
+        <v>1812.42</v>
+      </c>
+      <c r="L7">
+        <v>1598.15</v>
+      </c>
+      <c r="M7">
+        <v>1366.02</v>
+      </c>
+      <c r="N7">
+        <v>1436.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="C8">
+        <v>5.73</v>
+      </c>
+      <c r="D8">
+        <v>4.22</v>
+      </c>
+      <c r="E8">
+        <v>3.96</v>
+      </c>
+      <c r="F8">
+        <v>3.37</v>
+      </c>
+      <c r="G8">
+        <v>3.08</v>
+      </c>
+      <c r="H8">
+        <v>2.86</v>
+      </c>
+      <c r="I8">
+        <v>2.88</v>
+      </c>
+      <c r="J8">
+        <v>3.11</v>
+      </c>
+      <c r="K8">
+        <v>2.63</v>
+      </c>
+      <c r="L8">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="M8">
+        <v>2.36</v>
+      </c>
+      <c r="N8">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2815.11</v>
+      </c>
+      <c r="C9">
+        <v>2298.36</v>
+      </c>
+      <c r="D9">
+        <v>2182.37</v>
+      </c>
+      <c r="E9">
+        <v>2086.1</v>
+      </c>
+      <c r="F9">
+        <v>1860.63</v>
+      </c>
+      <c r="G9">
+        <v>1929.47</v>
+      </c>
+      <c r="H9">
+        <v>1756.73</v>
+      </c>
+      <c r="I9">
+        <v>1661.66</v>
+      </c>
+      <c r="J9">
+        <v>1876.7</v>
+      </c>
+      <c r="K9">
+        <v>1677.39</v>
+      </c>
+      <c r="L9">
+        <v>1574.1</v>
+      </c>
+      <c r="M9">
+        <v>1379.36</v>
+      </c>
+      <c r="N9">
+        <v>1332.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.6</v>
+      </c>
+      <c r="H11">
+        <v>0.7</v>
+      </c>
+      <c r="I11">
+        <v>0.8</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2652.67</v>
+      </c>
+      <c r="C12">
+        <v>1362.53</v>
+      </c>
+      <c r="D12">
+        <v>903.62</v>
+      </c>
+      <c r="E12">
+        <v>1153.06</v>
+      </c>
+      <c r="F12">
+        <v>849.51</v>
+      </c>
+      <c r="G12">
+        <v>707.06</v>
+      </c>
+      <c r="H12">
+        <v>497.7</v>
+      </c>
+      <c r="I12">
+        <v>460.77</v>
+      </c>
+      <c r="J12">
+        <v>435.7</v>
+      </c>
+      <c r="K12">
+        <v>434.21</v>
+      </c>
+      <c r="L12">
+        <v>300.74</v>
+      </c>
+      <c r="M12">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="N12">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>7810.9</v>
+      </c>
+      <c r="C13">
+        <v>7280.97</v>
+      </c>
+      <c r="D13">
+        <v>6090.16</v>
+      </c>
+      <c r="E13">
+        <v>8385.43</v>
+      </c>
+      <c r="F13">
+        <v>6112.79</v>
+      </c>
+      <c r="G13">
+        <v>6687.14</v>
+      </c>
+      <c r="H13">
+        <v>6142.81</v>
+      </c>
+      <c r="I13">
+        <v>6117.17</v>
+      </c>
+      <c r="J13">
+        <v>6296.87</v>
+      </c>
+      <c r="K13">
+        <v>5538.57</v>
+      </c>
+      <c r="L13">
+        <v>4751.38</v>
+      </c>
+      <c r="M13">
+        <v>3861.02</v>
+      </c>
+      <c r="N13">
+        <v>4144.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>382.16</v>
+      </c>
+      <c r="C14">
+        <v>204.08</v>
+      </c>
+      <c r="D14">
+        <v>149.34</v>
+      </c>
+      <c r="E14">
+        <v>146.66999999999999</v>
+      </c>
+      <c r="F14">
+        <v>129.35</v>
+      </c>
+      <c r="G14">
+        <v>125.77</v>
+      </c>
+      <c r="H14">
+        <v>121.97</v>
+      </c>
+      <c r="I14">
+        <v>23.23</v>
+      </c>
+      <c r="J14">
+        <v>126.48</v>
+      </c>
+      <c r="K14">
+        <v>111.31</v>
+      </c>
+      <c r="L14">
+        <v>272.68</v>
+      </c>
+      <c r="M14">
+        <v>111.33</v>
+      </c>
+      <c r="N14">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>65234.83</v>
+      </c>
+      <c r="C15">
+        <v>36328.04</v>
+      </c>
+      <c r="D15">
+        <v>36341.449999999997</v>
+      </c>
+      <c r="E15">
+        <v>37458.06</v>
+      </c>
+      <c r="F15">
+        <v>38440.910000000003</v>
+      </c>
+      <c r="G15">
+        <v>34037.96</v>
+      </c>
+      <c r="H15">
+        <v>33839.75</v>
+      </c>
+      <c r="I15">
+        <v>31482.42</v>
+      </c>
+      <c r="J15">
+        <v>32406.33</v>
+      </c>
+      <c r="K15">
+        <v>28572.03</v>
+      </c>
+      <c r="L15">
+        <v>23524.17</v>
+      </c>
+      <c r="M15">
+        <v>22226.29</v>
+      </c>
+      <c r="N15">
+        <v>21151.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>40658.89</v>
+      </c>
+      <c r="C16">
+        <v>26478.22</v>
+      </c>
+      <c r="D16">
+        <v>20884.12</v>
+      </c>
+      <c r="E16">
+        <v>13131.28</v>
+      </c>
+      <c r="F16">
+        <v>7987.07</v>
+      </c>
+      <c r="G16">
+        <v>6650.45</v>
+      </c>
+      <c r="H16">
+        <v>5288.65</v>
+      </c>
+      <c r="I16">
+        <v>5426.42</v>
+      </c>
+      <c r="J16">
+        <v>5405.06</v>
+      </c>
+      <c r="K16">
+        <v>6562.43</v>
+      </c>
+      <c r="L16">
+        <v>2170.16</v>
+      </c>
+      <c r="M16">
+        <v>783.71</v>
+      </c>
+      <c r="N16">
+        <v>1701.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>105888.85</v>
+      </c>
+      <c r="C17">
+        <v>99555.01</v>
+      </c>
+      <c r="D17">
+        <v>99780.54</v>
+      </c>
+      <c r="E17">
+        <v>95032.2</v>
+      </c>
+      <c r="F17">
+        <v>89698.67</v>
+      </c>
+      <c r="G17">
+        <v>85504.6</v>
+      </c>
+      <c r="H17">
+        <v>73112.63</v>
+      </c>
+      <c r="I17">
+        <v>74487</v>
+      </c>
+      <c r="J17">
+        <v>72065.740000000005</v>
+      </c>
+      <c r="K17">
+        <v>77777.289999999994</v>
+      </c>
+      <c r="L17">
+        <v>68674.679999999993</v>
+      </c>
+      <c r="M17">
+        <v>60561.27</v>
+      </c>
+      <c r="N17">
+        <v>60649.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>26500.35</v>
+      </c>
+      <c r="C18">
+        <v>2585.8000000000002</v>
+      </c>
+      <c r="D18">
+        <v>1740.37</v>
+      </c>
+      <c r="E18">
+        <v>2308.88</v>
+      </c>
+      <c r="F18">
+        <v>1398.22</v>
+      </c>
+      <c r="G18">
+        <v>912.38</v>
+      </c>
+      <c r="H18">
+        <v>486.82</v>
+      </c>
+      <c r="I18">
+        <v>600.75</v>
+      </c>
+      <c r="J18">
+        <v>412.37</v>
+      </c>
+      <c r="K18">
+        <v>229.66</v>
+      </c>
+      <c r="L18">
+        <v>310.52</v>
+      </c>
+      <c r="M18">
+        <v>85.56</v>
+      </c>
+      <c r="N18">
+        <v>275.85000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>108523.06</v>
+      </c>
+      <c r="C19">
+        <v>99084.69</v>
+      </c>
+      <c r="D19">
+        <v>102055.38</v>
+      </c>
+      <c r="E19">
+        <v>93464.56</v>
+      </c>
+      <c r="F19">
+        <v>91868.47</v>
+      </c>
+      <c r="G19">
+        <v>87372.4</v>
+      </c>
+      <c r="H19">
+        <v>73691.899999999994</v>
+      </c>
+      <c r="I19">
+        <v>77334.570000000007</v>
+      </c>
+      <c r="J19">
+        <v>69605.02</v>
+      </c>
+      <c r="K19">
+        <v>78446.880000000005</v>
+      </c>
+      <c r="L19">
+        <v>66750.27</v>
+      </c>
+      <c r="M19">
+        <v>59836.61</v>
+      </c>
+      <c r="N19">
+        <v>55544.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>0.3</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.6</v>
+      </c>
+      <c r="H24">
+        <v>0.7</v>
+      </c>
+      <c r="I24">
+        <v>0.8</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>32.4</v>
+      </c>
+      <c r="D25">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E25">
+        <v>41.6</v>
+      </c>
+      <c r="F25">
+        <v>49.5</v>
+      </c>
+      <c r="G25">
+        <v>53.4</v>
+      </c>
+      <c r="H25">
+        <v>57</v>
+      </c>
+      <c r="I25">
+        <v>57</v>
+      </c>
+      <c r="J25">
+        <v>64.3</v>
+      </c>
+      <c r="K25">
+        <v>67.3</v>
+      </c>
+      <c r="L25">
+        <v>82.8</v>
+      </c>
+      <c r="M25">
+        <v>88.1</v>
+      </c>
+      <c r="N25">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>33.1</v>
+      </c>
+      <c r="C26">
+        <v>46.2</v>
+      </c>
+      <c r="D26">
+        <v>49.8</v>
+      </c>
+      <c r="E26">
+        <v>57.4</v>
+      </c>
+      <c r="F26">
+        <v>62.5</v>
+      </c>
+      <c r="G26">
+        <v>64.7</v>
+      </c>
+      <c r="H26">
+        <v>67.5</v>
+      </c>
+      <c r="I26">
+        <v>68.7</v>
+      </c>
+      <c r="J26">
+        <v>74.3</v>
+      </c>
+      <c r="K26">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L26">
+        <v>81.5</v>
+      </c>
+      <c r="M26">
+        <v>88.6</v>
+      </c>
+      <c r="N26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1.8</v>
+      </c>
+      <c r="C27">
+        <v>1.7</v>
+      </c>
+      <c r="D27">
+        <v>2.5</v>
+      </c>
+      <c r="E27">
+        <v>1.6</v>
+      </c>
+      <c r="F27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G27">
+        <v>1.5</v>
+      </c>
+      <c r="H27">
+        <v>1.9</v>
+      </c>
+      <c r="I27">
+        <v>1.5</v>
+      </c>
+      <c r="J27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K27">
+        <v>1.7</v>
+      </c>
+      <c r="L27">
+        <v>2.6</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>8.4</v>
+      </c>
+      <c r="C28">
+        <v>13.1</v>
+      </c>
+      <c r="D28">
+        <v>15.7</v>
+      </c>
+      <c r="E28">
+        <v>17.5</v>
+      </c>
+      <c r="F28">
+        <v>25.5</v>
+      </c>
+      <c r="G28">
+        <v>22.6</v>
+      </c>
+      <c r="H28">
+        <v>27.8</v>
+      </c>
+      <c r="I28">
+        <v>26.3</v>
+      </c>
+      <c r="J28">
+        <v>30.9</v>
+      </c>
+      <c r="K28">
+        <v>30.6</v>
+      </c>
+      <c r="L28">
+        <v>41.5</v>
+      </c>
+      <c r="M28">
+        <v>44.3</v>
+      </c>
+      <c r="N28">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>64.8</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E29">
+        <v>72.7</v>
+      </c>
+      <c r="F29">
+        <v>77</v>
+      </c>
+      <c r="G29">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="H29">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="I29">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="J29">
+        <v>78.3</v>
+      </c>
+      <c r="K29">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="L29">
+        <v>82.1</v>
+      </c>
+      <c r="M29">
+        <v>83.2</v>
+      </c>
+      <c r="N29">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>56.6</v>
+      </c>
+      <c r="C30">
+        <v>61.7</v>
+      </c>
+      <c r="D30">
+        <v>61.5</v>
+      </c>
+      <c r="E30">
+        <v>73.7</v>
+      </c>
+      <c r="F30">
+        <v>64.7</v>
+      </c>
+      <c r="G30">
+        <v>63.7</v>
+      </c>
+      <c r="H30">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="I30">
+        <v>66.8</v>
+      </c>
+      <c r="J30">
+        <v>65.7</v>
+      </c>
+      <c r="K30">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="L30">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="M30">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="N30">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C31">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="D31">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E31">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F31">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="G31">
+        <v>78.2</v>
+      </c>
+      <c r="H31">
+        <v>80.3</v>
+      </c>
+      <c r="I31">
+        <v>81</v>
+      </c>
+      <c r="J31">
+        <v>79</v>
+      </c>
+      <c r="K31">
+        <v>82.1</v>
+      </c>
+      <c r="L31">
+        <v>83.4</v>
+      </c>
+      <c r="M31">
+        <v>84.1</v>
+      </c>
+      <c r="N31">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>61.3</v>
+      </c>
+      <c r="C32">
+        <v>65.3</v>
+      </c>
+      <c r="D32">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E32">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F32">
+        <v>71.2</v>
+      </c>
+      <c r="G32">
+        <v>69.2</v>
+      </c>
+      <c r="H32">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I32">
+        <v>72</v>
+      </c>
+      <c r="J32">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="K32">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="L32">
+        <v>73.3</v>
+      </c>
+      <c r="M32">
+        <v>74.7</v>
+      </c>
+      <c r="N32">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>0.2</v>
+      </c>
+      <c r="D34">
+        <v>0.3</v>
+      </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.6</v>
+      </c>
+      <c r="H34">
+        <v>0.7</v>
+      </c>
+      <c r="I34">
+        <v>0.8</v>
+      </c>
+      <c r="J34">
+        <v>0.9</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>B25*$O$24</f>
+        <v>190</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:N35" si="0">C25*$O$24</f>
+        <v>324</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>534</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>643</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>673</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>881</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:N36" si="1">B26*$O$24</f>
+        <v>331</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>498</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>574</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>647</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>687</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>743</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>815</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>886</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:N37" si="2">B27*$O$24</f>
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:N38" si="3">B28*$O$24</f>
+        <v>84</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>278</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>263</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>309</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:N39" si="4">B29*$O$24</f>
+        <v>648</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>719</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>727</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>770</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>779</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>784</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>796</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>783</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>811</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>821</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>832</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40:N40" si="5">B30*$O$24</f>
+        <v>566</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>617</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>615</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>737</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>647</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>637</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>674</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>668</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>657</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>671</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>689</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>724</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:N41" si="6">B31*$O$24</f>
+        <v>644</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="6"/>
+        <v>719</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>736</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>741</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>796</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>782</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>803</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>810</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>790</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>821</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>834</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>841</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:N42" si="7">B32*$O$24</f>
+        <v>613</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="7"/>
+        <v>653</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="7"/>
+        <v>661</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>674</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>712</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>692</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>719</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>720</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>701</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>719</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>733</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>747</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
   <si>
     <t>Brute Force</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Heuristic 3, adj</t>
+  </si>
+  <si>
+    <t>Heuristic 4, adj</t>
   </si>
 </sst>
 </file>
@@ -113,8 +116,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -127,9 +132,11 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -922,7 +929,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 3, adj</c:v>
+                  <c:v>Heuristic 4, adj</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1335,11 +1342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1818772112"/>
-        <c:axId val="-1818767504"/>
+        <c:axId val="1542986656"/>
+        <c:axId val="1498436624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1818772112"/>
+        <c:axId val="1542986656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,12 +1463,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1818767504"/>
+        <c:crossAx val="1498436624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1818767504"/>
+        <c:axId val="1498436624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,6 +1549,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1578,7 +1586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1818772112"/>
+        <c:crossAx val="1542986656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2439,7 +2447,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 3, adj</c:v>
+                  <c:v>Heuristic 4, adj</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2852,11 +2860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1888938032"/>
-        <c:axId val="-1889424304"/>
+        <c:axId val="1568702912"/>
+        <c:axId val="1568705200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1888938032"/>
+        <c:axId val="1568702912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2975,12 +2983,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1889424304"/>
+        <c:crossAx val="1568705200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1889424304"/>
+        <c:axId val="1568705200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1888938032"/>
+        <c:crossAx val="1568702912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3264,7 +3272,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$35</c:f>
+              <c:f>Sheet1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3299,7 +3307,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$N$34</c:f>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3347,48 +3355,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$N$35</c:f>
+              <c:f>Sheet1!$B$25:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2652.67</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1362.53</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>903.62</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1153.06</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>849.51</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>707.0599999999999</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>497.7</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>460.77</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>435.7</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>434.21</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>300.74</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.37</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.73</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,7 +3408,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$36</c:f>
+              <c:f>Sheet1!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3412,7 +3420,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3435,7 +3443,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$N$34</c:f>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3483,48 +3491,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$N$36</c:f>
+              <c:f>Sheet1!$B$26:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7810.9</c:v>
+                  <c:v>213.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7280.97</c:v>
+                  <c:v>154.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6090.16</c:v>
+                  <c:v>128.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8385.43</c:v>
+                  <c:v>86.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6112.79</c:v>
+                  <c:v>68.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6687.14</c:v>
+                  <c:v>52.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6142.81</c:v>
+                  <c:v>39.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6117.17</c:v>
+                  <c:v>29.98</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6296.87</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5538.57</c:v>
+                  <c:v>33.47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4751.38</c:v>
+                  <c:v>25.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3861.02</c:v>
+                  <c:v>8.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4144.2</c:v>
+                  <c:v>7.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,7 +3544,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$37</c:f>
+              <c:f>Sheet1!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3571,7 +3579,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$N$34</c:f>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3619,48 +3627,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$N$37</c:f>
+              <c:f>Sheet1!$B$27:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>382.16</c:v>
+                  <c:v>24.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.08</c:v>
+                  <c:v>21.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.34</c:v>
+                  <c:v>21.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.67</c:v>
+                  <c:v>21.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.35</c:v>
+                  <c:v>21.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125.77</c:v>
+                  <c:v>22.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>121.97</c:v>
+                  <c:v>21.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.23</c:v>
+                  <c:v>21.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.48</c:v>
+                  <c:v>21.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111.31</c:v>
+                  <c:v>21.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>272.68</c:v>
+                  <c:v>20.19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111.33</c:v>
+                  <c:v>20.43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>103.1</c:v>
+                  <c:v>19.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3672,7 +3680,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$38</c:f>
+              <c:f>Sheet1!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3707,7 +3715,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$N$34</c:f>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3755,48 +3763,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$N$38</c:f>
+              <c:f>Sheet1!$B$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>65234.83</c:v>
+                  <c:v>109.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36328.04</c:v>
+                  <c:v>49.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36341.45</c:v>
+                  <c:v>41.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37458.06</c:v>
+                  <c:v>40.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38440.91</c:v>
+                  <c:v>39.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34037.96</c:v>
+                  <c:v>25.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33839.75</c:v>
+                  <c:v>26.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31482.42</c:v>
+                  <c:v>39.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32406.33</c:v>
+                  <c:v>40.59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28572.03</c:v>
+                  <c:v>30.17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23524.17</c:v>
+                  <c:v>31.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22226.29</c:v>
+                  <c:v>21.51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21151.97</c:v>
+                  <c:v>38.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,7 +3816,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$39</c:f>
+              <c:f>Sheet1!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3843,7 +3851,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$N$34</c:f>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3891,48 +3899,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$N$39</c:f>
+              <c:f>Sheet1!$B$29:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>40658.89</c:v>
+                  <c:v>26.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26478.22</c:v>
+                  <c:v>7.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20884.12</c:v>
+                  <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13131.28</c:v>
+                  <c:v>4.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7987.07</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6650.45</c:v>
+                  <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5288.65</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5426.42</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5405.06</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6562.43</c:v>
+                  <c:v>2.84</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2170.16</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>783.71</c:v>
+                  <c:v>2.41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1701.45</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3944,11 +3952,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$40</c:f>
+              <c:f>Sheet1!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 3, adj</c:v>
+                  <c:v>Heuristic 4, adj</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3979,7 +3987,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$N$34</c:f>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4027,48 +4035,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$N$40</c:f>
+              <c:f>Sheet1!$B$30:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>105888.85</c:v>
+                  <c:v>2912.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99555.01</c:v>
+                  <c:v>2369.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99780.54</c:v>
+                  <c:v>2226.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95032.2</c:v>
+                  <c:v>2136.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89698.67</c:v>
+                  <c:v>1887.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85504.6</c:v>
+                  <c:v>1887.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73112.63</c:v>
+                  <c:v>1877.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74487.0</c:v>
+                  <c:v>1769.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72065.74000000001</c:v>
+                  <c:v>1795.43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77777.29</c:v>
+                  <c:v>1812.42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68674.68</c:v>
+                  <c:v>1598.15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60561.27</c:v>
+                  <c:v>1366.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60649.25</c:v>
+                  <c:v>1436.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,7 +4088,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$41</c:f>
+              <c:f>Sheet1!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4092,7 +4100,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4115,7 +4125,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$N$34</c:f>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4163,48 +4173,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$41:$N$41</c:f>
+              <c:f>Sheet1!$B$31:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>26500.35</c:v>
+                  <c:v>20.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2585.8</c:v>
+                  <c:v>5.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1740.37</c:v>
+                  <c:v>4.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2308.88</c:v>
+                  <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1398.22</c:v>
+                  <c:v>3.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>912.38</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>486.82</c:v>
+                  <c:v>2.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>600.75</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>412.37</c:v>
+                  <c:v>3.11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229.66</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>310.52</c:v>
+                  <c:v>2.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.56</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>275.85</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4216,7 +4226,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$42</c:f>
+              <c:f>Sheet1!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4257,7 +4267,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$N$34</c:f>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4305,48 +4315,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$N$42</c:f>
+              <c:f>Sheet1!$B$32:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>108523.06</c:v>
+                  <c:v>2815.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99084.69</c:v>
+                  <c:v>2298.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102055.38</c:v>
+                  <c:v>2182.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93464.56</c:v>
+                  <c:v>2086.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91868.47</c:v>
+                  <c:v>1860.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87372.4</c:v>
+                  <c:v>1929.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73691.9</c:v>
+                  <c:v>1756.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77334.57</c:v>
+                  <c:v>1661.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69605.02</c:v>
+                  <c:v>1876.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78446.88</c:v>
+                  <c:v>1677.39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66750.27</c:v>
+                  <c:v>1574.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59836.61</c:v>
+                  <c:v>1379.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55544.92</c:v>
+                  <c:v>1332.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4361,13 +4371,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1818722624"/>
-        <c:axId val="-1818718352"/>
+        <c:axId val="1568752816"/>
+        <c:axId val="1568757088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1818722624"/>
+        <c:axId val="1568752816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4482,12 +4493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1818718352"/>
+        <c:crossAx val="1568757088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1818718352"/>
+        <c:axId val="1568757088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4604,7 +4615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1818722624"/>
+        <c:crossAx val="1568752816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4700,6 +4711,1365 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$35:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>373.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>416.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>534.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>673.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>828.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>881.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>946.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$36:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>498.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>574.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>647.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>675.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>744.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>815.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>886.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>860.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$37:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$38:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>443.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>475.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$39:$N$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>648.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>727.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>770.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>779.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>796.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>783.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>811.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>821.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>832.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>839.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 3, adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$40:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>617.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>615.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>647.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>637.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>674.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>668.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>657.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>671.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>689.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>724.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>733.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$41:$N$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>644.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>736.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>741.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>796.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>782.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>803.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>810.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>790.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>821.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>834.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>841.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>838.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic 5, adj </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$42:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>613.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>653.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>661.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>674.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>712.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>692.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>701.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>733.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>747.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>758.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1569964160"/>
+        <c:axId val="1569967152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1569964160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569967152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1569967152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1569964160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4730,7 +6100,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5305,7 +6674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 3, adj</c:v>
+                  <c:v>Heuristic 4, adj</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5627,11 +6996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1818659776"/>
-        <c:axId val="-1818656512"/>
+        <c:axId val="1543048064"/>
+        <c:axId val="1543051328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1818659776"/>
+        <c:axId val="1543048064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,7 +7043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1818656512"/>
+        <c:crossAx val="1543051328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5682,7 +7051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1818656512"/>
+        <c:axId val="1543051328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5733,7 +7102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1818659776"/>
+        <c:crossAx val="1543048064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5747,7 +7116,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5814,7 +7182,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6441,7 +7809,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Heuristic 3, adj</c:v>
+                  <c:v>Heuristic 4, adj</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6763,11 +8131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1818613248"/>
-        <c:axId val="-1818609984"/>
+        <c:axId val="1543087872"/>
+        <c:axId val="1543091136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1818613248"/>
+        <c:axId val="1543087872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6810,7 +8178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1818609984"/>
+        <c:crossAx val="1543091136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6818,7 +8186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1818609984"/>
+        <c:axId val="1543091136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6868,7 +8236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1818613248"/>
+        <c:crossAx val="1543087872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6882,7 +8250,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7149,6 +8516,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8698,7 +10105,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8725,8 +10132,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8806,11 +10213,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8821,11 +10223,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8837,7 +10234,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8857,9 +10254,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8872,10 +10266,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8915,22 +10309,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9035,8 +10430,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9168,19 +10563,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9194,6 +10590,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9729,20 +11136,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>129309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244763</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>142009</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9797,16 +11720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87457</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9829,6 +11752,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10162,8 +12120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="A1:N9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10437,7 +12395,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>56.6</v>
@@ -10834,7 +12792,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>16.2</v>
@@ -11235,9 +13193,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>2912.19</v>
@@ -11323,7 +13281,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -11630,7 +13588,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>105888.85</v>
@@ -11771,8 +13729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13467,6 +15425,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13474,7 +15434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
